--- a/4_testing/neighborcf/movielens/2020.12.03/analyze-movielens-100k-user.xlsx
+++ b/4_testing/neighborcf/movielens/2020.12.03/analyze-movielens-100k-user.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GoogleDrive\todeploy\working\projects\sim\working\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9325960F-6F9D-4795-8EC9-530840061169}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6525190-6483-4FE9-8AC9-5391054BB0E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="28">
   <si>
     <t>Cosine</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>r=0.9, k=50</t>
+  </si>
+  <si>
+    <t>r=0.7, k=100</t>
+  </si>
+  <si>
+    <t>r=0.9, k=100</t>
   </si>
 </sst>
 </file>
@@ -203,7 +209,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>MAE!$H$1</c:f>
+              <c:f>MAE!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -259,36 +265,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>MAE!$H$2:$H$10</c:f>
+              <c:f>MAE!$J$2:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.81056666666666655</c:v>
+                  <c:v>0.79203749999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8479000000000001</c:v>
+                  <c:v>0.81327500000000008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8633666666666665</c:v>
+                  <c:v>0.83452499999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81230000000000002</c:v>
+                  <c:v>0.78275000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.82263333333333344</c:v>
+                  <c:v>0.81217499999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82243333333333346</c:v>
+                  <c:v>0.81247500000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.81064999999999998</c:v>
+                  <c:v>0.8000124999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.81273333333333342</c:v>
+                  <c:v>0.80577500000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79910000000000014</c:v>
+                  <c:v>0.76557499999999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -557,31 +563,31 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.11503062722123165</c:v>
+                  <c:v>0.11444838328345154</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12011278807049257</c:v>
+                  <c:v>0.11950650723654456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10880362162096102</c:v>
+                  <c:v>0.10627556025793268</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11524081930435735</c:v>
+                  <c:v>0.11534871205592261</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1149369813612026</c:v>
+                  <c:v>0.1150591931855818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11519821811582248</c:v>
+                  <c:v>0.11530563683363812</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11513796766771688</c:v>
+                  <c:v>0.11525318872846978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11529021598232707</c:v>
+                  <c:v>0.11538367566309274</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.8052518817730505E-2</c:v>
+                  <c:v>8.8157925641230941E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -851,19 +857,19 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.82263333333333344</c:v>
+                  <c:v>0.81217499999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1098166666666667</c:v>
+                  <c:v>1.1040749999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72376666666666667</c:v>
+                  <c:v>0.714175</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93833333333333335</c:v>
+                  <c:v>0.9382625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15585000000000004</c:v>
+                  <c:v>0.15593749999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -942,19 +948,19 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.81273333333333342</c:v>
+                  <c:v>0.80577500000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.08165</c:v>
+                  <c:v>1.0817625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71221666666666672</c:v>
+                  <c:v>0.70681250000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9381666666666667</c:v>
+                  <c:v>0.93811250000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14895000000000003</c:v>
+                  <c:v>0.14902499999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1033,16 +1039,16 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.79910000000000014</c:v>
+                  <c:v>0.76557499999999989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0389499999999998</c:v>
+                  <c:v>0.99353749999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66715000000000002</c:v>
+                  <c:v>0.63178749999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95368333333333333</c:v>
+                  <c:v>0.95362499999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.10970000000000002</c:v>
@@ -2969,16 +2975,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>233362</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>4760</xdr:rowOff>
+      <xdr:rowOff>4759</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>4762</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3013,13 +3019,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>4762</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>461962</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3387,7 +3393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F415299B-7611-4776-90FA-43332039FA40}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -3395,7 +3401,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>20</v>
       </c>
@@ -3406,19 +3412,25 @@
         <v>22</v>
       </c>
       <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3432,20 +3444,26 @@
         <v>0.77370000000000005</v>
       </c>
       <c r="E2" s="1">
+        <v>0.76480000000000004</v>
+      </c>
+      <c r="F2" s="1">
         <v>0.84730000000000005</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>0.8478</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>0.84770000000000001</v>
       </c>
-      <c r="H2" s="1">
-        <f t="shared" ref="H2:H10" si="0">AVERAGE(B2:G2)</f>
-        <v>0.81056666666666655</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1">
+        <v>0.70809999999999995</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" ref="J2:J10" si="0">AVERAGE(B2:I2)</f>
+        <v>0.79203749999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3459,20 +3477,26 @@
         <v>0.78990000000000005</v>
       </c>
       <c r="E3" s="1">
+        <v>0.69810000000000005</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.90690000000000004</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>0.90610000000000002</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>0.90559999999999996</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
+        <v>0.72070000000000001</v>
+      </c>
+      <c r="J3" s="1">
         <f t="shared" si="0"/>
-        <v>0.8479000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.81327500000000008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3486,20 +3510,26 @@
         <v>0.80940000000000001</v>
       </c>
       <c r="E4" s="1">
+        <v>0.78649999999999998</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.91610000000000003</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>0.91820000000000002</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>0.91749999999999998</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
+        <v>0.70950000000000002</v>
+      </c>
+      <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>0.8633666666666665</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.83452499999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3513,20 +3543,26 @@
         <v>0.77110000000000001</v>
       </c>
       <c r="E5" s="1">
+        <v>0.67989999999999995</v>
+      </c>
+      <c r="F5" s="1">
         <v>0.8538</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0.85350000000000004</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>0.8538</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>0.81230000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.78275000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3540,20 +3576,26 @@
         <v>0.77300000000000002</v>
       </c>
       <c r="E6" s="1">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="F6" s="1">
         <v>0.87290000000000001</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>0.872</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>0.87250000000000005</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
+        <v>0.78559999999999997</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>0.82263333333333344</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.81217499999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3567,20 +3609,26 @@
         <v>0.77280000000000004</v>
       </c>
       <c r="E7" s="1">
+        <v>0.78010000000000002</v>
+      </c>
+      <c r="F7" s="1">
         <v>0.87229999999999996</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>0.872</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>0.87229999999999996</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
+        <v>0.78510000000000002</v>
+      </c>
+      <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>0.82243333333333346</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.81247500000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3594,20 +3642,26 @@
         <v>0.77270000000000005</v>
       </c>
       <c r="E8" s="1">
-        <v>0.84870000000000001</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="F8" s="1">
         <v>0.84870000000000001</v>
       </c>
       <c r="G8" s="1">
+        <v>0.84870000000000001</v>
+      </c>
+      <c r="H8" s="1">
         <v>0.8488</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
+        <v>0.7722</v>
+      </c>
+      <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>0.81064999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.8000124999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3621,20 +3675,26 @@
         <v>0.77070000000000005</v>
       </c>
       <c r="E9" s="1">
+        <v>0.7671</v>
+      </c>
+      <c r="F9" s="1">
         <v>0.85519999999999996</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>0.85460000000000003</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>0.85509999999999997</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
+        <v>0.80269999999999997</v>
+      </c>
+      <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>0.81273333333333342</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.80577500000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -3648,17 +3708,23 @@
         <v>0.77390000000000003</v>
       </c>
       <c r="E10" s="1">
+        <v>0.68959999999999999</v>
+      </c>
+      <c r="F10" s="1">
         <v>0.82530000000000003</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.82410000000000005</v>
       </c>
       <c r="G10" s="1">
         <v>0.82410000000000005</v>
       </c>
       <c r="H10" s="1">
+        <v>0.82410000000000005</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.64039999999999997</v>
+      </c>
+      <c r="J10" s="1">
         <f t="shared" si="0"/>
-        <v>0.79910000000000014</v>
+        <v>0.76557499999999989</v>
       </c>
     </row>
   </sheetData>
@@ -3670,7 +3736,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D845ED3B-1C35-4974-BD89-89002EC8961B}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -3678,7 +3744,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>20</v>
       </c>
@@ -3689,22 +3755,28 @@
         <v>22</v>
       </c>
       <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3718,24 +3790,30 @@
         <v>0.9698</v>
       </c>
       <c r="E2" s="1">
+        <v>1.0117</v>
+      </c>
+      <c r="F2" s="1">
         <v>1.1800999999999999</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>1.1816</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>1.1818</v>
       </c>
-      <c r="H2" s="1">
-        <f t="shared" ref="H2:H10" si="0">AVERAGE(B2:G2)</f>
-        <v>1.0751166666666667</v>
-      </c>
       <c r="I2" s="1">
-        <f>SQRT(H2)</f>
-        <v>1.0368783278025762</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.95589999999999997</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" ref="J2:J10" si="0">AVERAGE(B2:I2)</f>
+        <v>1.0522875</v>
+      </c>
+      <c r="K2" s="1">
+        <f>SQRT(J2)</f>
+        <v>1.0258106550431225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3749,24 +3827,30 @@
         <v>1.0059</v>
       </c>
       <c r="E3" s="1">
+        <v>0.95369999999999999</v>
+      </c>
+      <c r="F3" s="1">
         <v>1.3391999999999999</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>1.3371</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>1.3358000000000001</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
+        <v>1.0065999999999999</v>
+      </c>
+      <c r="J3" s="1">
         <f t="shared" si="0"/>
-        <v>1.1709999999999998</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I10" si="1">SQRT(H3)</f>
-        <v>1.0821275340735028</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.1232875</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K10" si="1">SQRT(J3)</f>
+        <v>1.0598525840889383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3780,24 +3864,30 @@
         <v>1.0468</v>
       </c>
       <c r="E4" s="1">
+        <v>1.0775999999999999</v>
+      </c>
+      <c r="F4" s="1">
         <v>1.3464</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>1.3519000000000001</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>1.3492</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>1.1975166666666668</v>
-      </c>
-      <c r="I4" s="1">
+        <v>1.1565624999999999</v>
+      </c>
+      <c r="K4" s="1">
         <f t="shared" si="1"/>
-        <v>1.0943110465798409</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.075435958111872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3811,24 +3901,30 @@
         <v>0.96560000000000001</v>
       </c>
       <c r="E5" s="1">
+        <v>0.89959999999999996</v>
+      </c>
+      <c r="F5" s="1">
         <v>1.1959</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>1.1957</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>1.1970000000000001</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>1.0805166666666666</v>
-      </c>
-      <c r="I5" s="1">
+        <v>1.0425875</v>
+      </c>
+      <c r="K5" s="1">
         <f t="shared" si="1"/>
-        <v>1.0394790361843123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0210717408683878</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3842,24 +3938,30 @@
         <v>0.97230000000000005</v>
       </c>
       <c r="E6" s="1">
+        <v>1.0720000000000001</v>
+      </c>
+      <c r="F6" s="1">
         <v>1.2484</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>1.2470000000000001</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>1.2484999999999999</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
+        <v>1.1016999999999999</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>1.1098166666666667</v>
-      </c>
-      <c r="I6" s="1">
+        <v>1.1040749999999999</v>
+      </c>
+      <c r="K6" s="1">
         <f t="shared" si="1"/>
-        <v>1.0534783655427702</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0507497323340129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3873,24 +3975,30 @@
         <v>0.97540000000000004</v>
       </c>
       <c r="E7" s="1">
+        <v>1.0722</v>
+      </c>
+      <c r="F7" s="1">
         <v>1.2525999999999999</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>1.2523</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>1.2534000000000001</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
+        <v>1.1047</v>
+      </c>
+      <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>1.1138166666666667</v>
-      </c>
-      <c r="I7" s="1">
+        <v>1.107475</v>
+      </c>
+      <c r="K7" s="1">
         <f t="shared" si="1"/>
-        <v>1.055375130778941</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0523663810669741</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3904,24 +4012,30 @@
         <v>0.96750000000000003</v>
       </c>
       <c r="E8" s="1">
+        <v>1.0263</v>
+      </c>
+      <c r="F8" s="1">
         <v>1.1833</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>1.1842999999999999</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>1.1846000000000001</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
+        <v>1.0601</v>
+      </c>
+      <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>1.0754166666666665</v>
-      </c>
-      <c r="I8" s="1">
+        <v>1.0673625</v>
+      </c>
+      <c r="K8" s="1">
         <f t="shared" si="1"/>
-        <v>1.0370229827089978</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.033132372931949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3935,24 +4049,30 @@
         <v>0.96450000000000002</v>
       </c>
       <c r="E9" s="1">
+        <v>1.0497000000000001</v>
+      </c>
+      <c r="F9" s="1">
         <v>1.1993</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>1.1989000000000001</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>1.2002999999999999</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
+        <v>1.1145</v>
+      </c>
+      <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>1.08165</v>
-      </c>
-      <c r="I9" s="1">
+        <v>1.0817625</v>
+      </c>
+      <c r="K9" s="1">
         <f t="shared" si="1"/>
-        <v>1.0400240381837336</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0400781220658379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -3966,25 +4086,31 @@
         <v>0.96899999999999997</v>
       </c>
       <c r="E10" s="1">
+        <v>0.88360000000000005</v>
+      </c>
+      <c r="F10" s="1">
         <v>1.1131</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>1.1084000000000001</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>1.1076999999999999</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="J10" s="1">
         <f t="shared" si="0"/>
-        <v>1.0389499999999998</v>
-      </c>
-      <c r="I10" s="1">
+        <v>0.99353749999999996</v>
+      </c>
+      <c r="K10" s="1">
         <f t="shared" si="1"/>
-        <v>1.0192889678594583</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I11" s="1"/>
+        <v>0.99676351257457252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3994,7 +4120,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10484FF-0F81-4946-89C5-3E5AAAADF83E}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -4002,7 +4128,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>20</v>
       </c>
@@ -4013,19 +4139,25 @@
         <v>22</v>
       </c>
       <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4039,20 +4171,26 @@
         <v>0.35859999999999997</v>
       </c>
       <c r="E2" s="1">
+        <v>0.34539999999999998</v>
+      </c>
+      <c r="F2" s="1">
         <v>0.23150000000000001</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>0.22689999999999999</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>0.22850000000000001</v>
       </c>
-      <c r="H2" s="1">
-        <f t="shared" ref="H2:H10" si="0">AVERAGE(B2:G2)</f>
-        <v>0.29354999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1">
+        <v>0.39479999999999998</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" ref="J2:J10" si="0">AVERAGE(B2:I2)</f>
+        <v>0.31268750000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4066,20 +4204,26 @@
         <v>0.28539999999999999</v>
       </c>
       <c r="E3" s="1">
+        <v>0.3911</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.1232</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>0.123</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>0.125</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
+        <v>0.35749999999999998</v>
+      </c>
+      <c r="J3" s="1">
         <f t="shared" si="0"/>
-        <v>0.20480000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.24717499999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4093,20 +4237,26 @@
         <v>0.1895</v>
       </c>
       <c r="E4" s="1">
+        <v>0.2392</v>
+      </c>
+      <c r="F4" s="1">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>6.0299999999999999E-2</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>5.8900000000000001E-2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
+        <v>0.35089999999999999</v>
+      </c>
+      <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>0.12480000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.1673625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4120,20 +4270,26 @@
         <v>0.35460000000000003</v>
       </c>
       <c r="E5" s="1">
+        <v>0.43369999999999997</v>
+      </c>
+      <c r="F5" s="1">
         <v>0.223</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0.21909999999999999</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>0.21990000000000001</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
+        <v>0.39589999999999997</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>0.28736666666666671</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.31922500000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4147,20 +4303,26 @@
         <v>0.34499999999999997</v>
       </c>
       <c r="E6" s="1">
+        <v>0.3201</v>
+      </c>
+      <c r="F6" s="1">
         <v>0.2102</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>0.20630000000000001</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>0.2074</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
+        <v>0.30909999999999999</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>0.27623333333333333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.285825</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4174,20 +4336,26 @@
         <v>0.35270000000000001</v>
       </c>
       <c r="E7" s="1">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="F7" s="1">
         <v>0.21279999999999999</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>0.2102</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>0.21199999999999999</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
+        <v>0.31230000000000002</v>
+      </c>
+      <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>0.28205000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.29170000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4201,20 +4369,26 @@
         <v>0.36130000000000001</v>
       </c>
       <c r="E8" s="1">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="F8" s="1">
         <v>0.23069999999999999</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>0.22700000000000001</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>0.22850000000000001</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
+        <v>0.3201</v>
+      </c>
+      <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>0.2949</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.3041875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4228,20 +4402,26 @@
         <v>0.35580000000000001</v>
       </c>
       <c r="E9" s="1">
+        <v>0.3337</v>
+      </c>
+      <c r="F9" s="1">
         <v>0.22239999999999999</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>0.21859999999999999</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>0.2195</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
+        <v>0.28510000000000002</v>
+      </c>
+      <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>0.28778333333333328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.29318749999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4255,17 +4435,23 @@
         <v>0.3619</v>
       </c>
       <c r="E10" s="1">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="F10" s="1">
         <v>0.30080000000000001</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>0.30599999999999999</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>0.30449999999999999</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
+        <v>0.49959999999999999</v>
+      </c>
+      <c r="J10" s="1">
         <f t="shared" si="0"/>
-        <v>0.33284999999999998</v>
+        <v>0.3682125</v>
       </c>
     </row>
   </sheetData>
@@ -4276,7 +4462,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E2A596-55B6-400A-BEAB-8F453735749D}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -4284,7 +4470,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>20</v>
       </c>
@@ -4295,19 +4481,25 @@
         <v>22</v>
       </c>
       <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4321,20 +4513,26 @@
         <v>3.5299999999999998E-2</v>
       </c>
       <c r="E2" s="1">
+        <v>0.43149999999999999</v>
+      </c>
+      <c r="F2" s="1">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="H2" s="1">
-        <f t="shared" ref="H2:H10" si="0">AVERAGE(B2:G2)</f>
-        <v>2.5249999999999995E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1">
+        <v>0.25650000000000001</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" ref="J2:J10" si="0">AVERAGE(B2:I2)</f>
+        <v>0.10493750000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4348,20 +4546,26 @@
         <v>3.5700000000000003E-2</v>
       </c>
       <c r="E3" s="1">
+        <v>1.5503</v>
+      </c>
+      <c r="F3" s="1">
         <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>9.7999999999999997E-3</v>
       </c>
       <c r="G3" s="1">
         <v>9.7999999999999997E-3</v>
       </c>
       <c r="H3" s="1">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.32550000000000001</v>
+      </c>
+      <c r="J3" s="1">
         <f t="shared" si="0"/>
-        <v>2.5216666666666668E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.25338750000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4375,20 +4579,26 @@
         <v>3.7600000000000001E-2</v>
       </c>
       <c r="E4" s="1">
+        <v>1.9154</v>
+      </c>
+      <c r="F4" s="1">
         <v>1.03E-2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>1.06E-2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
+        <v>1.9893000000000001</v>
+      </c>
+      <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>2.6683333333333337E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.5081</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4402,20 +4612,26 @@
         <v>4.36E-2</v>
       </c>
       <c r="E5" s="1">
+        <v>0.36330000000000001</v>
+      </c>
+      <c r="F5" s="1">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>1.32E-2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
+        <v>0.3397</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>3.15E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.1115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4429,20 +4645,26 @@
         <v>4.8399999999999999E-2</v>
       </c>
       <c r="E6" s="1">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="F6" s="1">
         <v>1.47E-2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>3.5466666666666667E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3.5587500000000008E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4456,20 +4678,26 @@
         <v>3.7400000000000003E-2</v>
       </c>
       <c r="E7" s="1">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="F7" s="1">
         <v>1.04E-2</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>1.06E-2</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
+        <v>1.52E-2</v>
+      </c>
+      <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>2.6816666666666659E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.4999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4483,20 +4711,26 @@
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="E8" s="1">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="F8" s="1">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>1.06E-2</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>2.6649999999999997E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.4524999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4510,20 +4744,26 @@
         <v>4.3499999999999997E-2</v>
       </c>
       <c r="E9" s="1">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="F9" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>3.1666666666666669E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.8575000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4537,17 +4777,23 @@
         <v>6.6500000000000004E-2</v>
       </c>
       <c r="E10" s="1">
+        <v>0.34520000000000001</v>
+      </c>
+      <c r="F10" s="1">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
+        <v>0.34510000000000002</v>
+      </c>
+      <c r="J10" s="1">
         <f t="shared" si="0"/>
-        <v>5.4733333333333335E-2</v>
+        <v>0.12733749999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4558,7 +4804,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD571D8-A6EF-4FD2-AC2E-36D5484BA4FE}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -4566,7 +4812,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>20</v>
       </c>
@@ -4577,19 +4823,25 @@
         <v>22</v>
       </c>
       <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4603,20 +4855,26 @@
         <v>3.9600000000000003E-2</v>
       </c>
       <c r="E2" s="1">
+        <v>3.95E-2</v>
+      </c>
+      <c r="F2" s="1">
         <v>8.3599999999999994E-2</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>8.4199999999999997E-2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>8.3400000000000002E-2</v>
       </c>
-      <c r="H2" s="1">
-        <f t="shared" ref="H2:H10" si="0">AVERAGE(B2:G2)</f>
-        <v>6.1666666666666668E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1">
+        <v>8.1199999999999994E-2</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" ref="J2:J10" si="0">AVERAGE(B2:I2)</f>
+        <v>6.1337499999999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4630,20 +4888,26 @@
         <v>3.8399999999999997E-2</v>
       </c>
       <c r="E3" s="1">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="F3" s="1">
         <v>9.1200000000000003E-2</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>9.1800000000000007E-2</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>9.06E-2</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="J3" s="1">
         <f t="shared" si="0"/>
-        <v>6.480000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6.4450000000000007E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4657,20 +4921,26 @@
         <v>3.5799999999999998E-2</v>
       </c>
       <c r="E4" s="1">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="F4" s="1">
         <v>8.0299999999999996E-2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>8.09E-2</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>8.0100000000000005E-2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>5.8116666666666657E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5.6687500000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4684,20 +4954,26 @@
         <v>3.9899999999999998E-2</v>
       </c>
       <c r="E5" s="1">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="F5" s="1">
         <v>8.3500000000000005E-2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>8.4199999999999997E-2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>8.3400000000000002E-2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
+        <v>8.4199999999999997E-2</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>6.1800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6.1862499999999994E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4711,20 +4987,26 @@
         <v>4.02E-2</v>
       </c>
       <c r="E6" s="1">
+        <v>4.02E-2</v>
+      </c>
+      <c r="F6" s="1">
         <v>8.2900000000000001E-2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>8.3699999999999997E-2</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>8.2799999999999999E-2</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>6.1666666666666668E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6.1737500000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4738,20 +5020,26 @@
         <v>4.02E-2</v>
       </c>
       <c r="E7" s="1">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="F7" s="1">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>8.3900000000000002E-2</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>6.1800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6.1862500000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4765,20 +5053,26 @@
         <v>3.9699999999999999E-2</v>
       </c>
       <c r="E8" s="1">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="F8" s="1">
         <v>8.3599999999999994E-2</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>8.43E-2</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>8.3400000000000002E-2</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
+        <v>8.4400000000000003E-2</v>
+      </c>
+      <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>6.1733333333333328E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6.1800000000000008E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4792,20 +5086,26 @@
         <v>0.04</v>
       </c>
       <c r="E9" s="1">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="F9" s="1">
         <v>8.3500000000000005E-2</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>8.4199999999999997E-2</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
+        <v>8.4199999999999997E-2</v>
+      </c>
+      <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>6.183333333333333E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6.1887499999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4819,17 +5119,23 @@
         <v>3.7600000000000001E-2</v>
       </c>
       <c r="E10" s="1">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="F10" s="1">
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>5.5399999999999998E-2</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>5.5E-2</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="J10" s="1">
         <f t="shared" si="0"/>
-        <v>4.6316666666666673E-2</v>
+        <v>4.6375E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4840,15 +5146,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E037ECD2-FD94-4DA2-BE1D-F9E27FEA143C}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>20</v>
       </c>
@@ -4859,19 +5165,25 @@
         <v>22</v>
       </c>
       <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4885,20 +5197,26 @@
         <v>0.90749999999999997</v>
       </c>
       <c r="E2" s="1">
+        <v>0.90739999999999998</v>
+      </c>
+      <c r="F2" s="1">
         <v>0.80210000000000004</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>0.80110000000000003</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>0.80169999999999997</v>
       </c>
-      <c r="H2" s="1">
-        <f t="shared" ref="H2:H10" si="0">AVERAGE(B2:G2)</f>
-        <v>0.85436666666666683</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" ref="J2:J10" si="0">AVERAGE(B2:I2)</f>
+        <v>0.85332500000000011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4912,20 +5230,26 @@
         <v>0.9083</v>
       </c>
       <c r="E3" s="1">
+        <v>0.90820000000000001</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.73270000000000002</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>0.73260000000000003</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>0.73340000000000005</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="J3" s="1">
         <f t="shared" si="0"/>
-        <v>0.82039999999999991</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.81995000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4939,20 +5263,26 @@
         <v>0.91949999999999998</v>
       </c>
       <c r="E4" s="1">
+        <v>0.91969999999999996</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.78339999999999999</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>0.78290000000000004</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>0.78300000000000003</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>0.85108333333333341</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.84858750000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4966,20 +5296,26 @@
         <v>0.90769999999999995</v>
       </c>
       <c r="E5" s="1">
+        <v>0.90739999999999998</v>
+      </c>
+      <c r="F5" s="1">
         <v>0.79690000000000005</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0.7964</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>0.79710000000000003</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
+        <v>0.79590000000000005</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>0.85198333333333343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.8519000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4993,20 +5329,26 @@
         <v>0.90429999999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.78420000000000001</v>
+        <v>0.90410000000000001</v>
       </c>
       <c r="F6" s="1">
         <v>0.78420000000000001</v>
       </c>
       <c r="G6" s="1">
+        <v>0.78420000000000001</v>
+      </c>
+      <c r="H6" s="1">
         <v>0.78439999999999999</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
+        <v>0.78349999999999997</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>0.84414999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.84406250000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5020,20 +5362,26 @@
         <v>0.90739999999999998</v>
       </c>
       <c r="E7" s="1">
+        <v>0.90720000000000001</v>
+      </c>
+      <c r="F7" s="1">
         <v>0.78820000000000001</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>0.78710000000000002</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>0.78749999999999998</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
+        <v>0.78649999999999998</v>
+      </c>
+      <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>0.84734999999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.84722500000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5047,20 +5395,26 @@
         <v>0.90710000000000002</v>
       </c>
       <c r="E8" s="1">
+        <v>0.90690000000000004</v>
+      </c>
+      <c r="F8" s="1">
         <v>0.80049999999999999</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>0.79990000000000006</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>0.8004</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
+        <v>0.79930000000000001</v>
+      </c>
+      <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>0.8534166666666666</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.85333749999999986</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5074,20 +5428,26 @@
         <v>0.90720000000000001</v>
       </c>
       <c r="E9" s="1">
+        <v>0.90690000000000004</v>
+      </c>
+      <c r="F9" s="1">
         <v>0.79569999999999996</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>0.79510000000000003</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>0.79569999999999996</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
+        <v>0.79459999999999997</v>
+      </c>
+      <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>0.85104999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.85097500000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -5101,15 +5461,21 @@
         <v>0.90849999999999997</v>
       </c>
       <c r="E10" s="1">
+        <v>0.90859999999999996</v>
+      </c>
+      <c r="F10" s="1">
         <v>0.87180000000000002</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>0.87309999999999999</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>0.87229999999999996</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
+        <v>0.872</v>
+      </c>
+      <c r="J10" s="1">
         <f t="shared" si="0"/>
         <v>0.89029999999999998</v>
       </c>
@@ -5125,7 +5491,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5146,16 +5512,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <f>Precision!H2</f>
-        <v>6.1666666666666668E-2</v>
+        <f>Precision!J2</f>
+        <v>6.1337499999999996E-2</v>
       </c>
       <c r="C2" s="1">
-        <f>Recall!H2</f>
-        <v>0.85436666666666683</v>
+        <f>Recall!J2</f>
+        <v>0.85332500000000011</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:D10" si="0">2*(B2*C2)/(B2+C2)</f>
-        <v>0.11503062722123165</v>
+        <v>0.11444838328345154</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5163,16 +5529,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <f>Precision!H3</f>
-        <v>6.480000000000001E-2</v>
+        <f>Precision!J3</f>
+        <v>6.4450000000000007E-2</v>
       </c>
       <c r="C3" s="1">
-        <f>Recall!H3</f>
-        <v>0.82039999999999991</v>
+        <f>Recall!J3</f>
+        <v>0.81995000000000007</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>0.12011278807049257</v>
+        <v>0.11950650723654456</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5180,16 +5546,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <f>Precision!H4</f>
-        <v>5.8116666666666657E-2</v>
+        <f>Precision!J4</f>
+        <v>5.6687500000000002E-2</v>
       </c>
       <c r="C4" s="1">
-        <f>Recall!H4</f>
-        <v>0.85108333333333341</v>
+        <f>Recall!J4</f>
+        <v>0.84858750000000005</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>0.10880362162096102</v>
+        <v>0.10627556025793268</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5197,16 +5563,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <f>Precision!H5</f>
-        <v>6.1800000000000001E-2</v>
+        <f>Precision!J5</f>
+        <v>6.1862499999999994E-2</v>
       </c>
       <c r="C5" s="1">
-        <f>Recall!H5</f>
-        <v>0.85198333333333343</v>
+        <f>Recall!J5</f>
+        <v>0.8519000000000001</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>0.11524081930435735</v>
+        <v>0.11534871205592261</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5214,16 +5580,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <f>Precision!H6</f>
-        <v>6.1666666666666668E-2</v>
+        <f>Precision!J6</f>
+        <v>6.1737500000000001E-2</v>
       </c>
       <c r="C6" s="1">
-        <f>Recall!H6</f>
-        <v>0.84414999999999996</v>
+        <f>Recall!J6</f>
+        <v>0.84406250000000005</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>0.1149369813612026</v>
+        <v>0.1150591931855818</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5231,16 +5597,16 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <f>Precision!H7</f>
-        <v>6.1800000000000001E-2</v>
+        <f>Precision!J7</f>
+        <v>6.1862500000000001E-2</v>
       </c>
       <c r="C7" s="1">
-        <f>Recall!H7</f>
-        <v>0.84734999999999994</v>
+        <f>Recall!J7</f>
+        <v>0.84722500000000001</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>0.11519821811582248</v>
+        <v>0.11530563683363812</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -5248,16 +5614,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <f>Precision!H8</f>
-        <v>6.1733333333333328E-2</v>
+        <f>Precision!J8</f>
+        <v>6.1800000000000008E-2</v>
       </c>
       <c r="C8" s="1">
-        <f>Recall!H8</f>
-        <v>0.8534166666666666</v>
+        <f>Recall!J8</f>
+        <v>0.85333749999999986</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>0.11513796766771688</v>
+        <v>0.11525318872846978</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5265,16 +5631,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <f>Precision!H9</f>
-        <v>6.183333333333333E-2</v>
+        <f>Precision!J9</f>
+        <v>6.1887499999999998E-2</v>
       </c>
       <c r="C9" s="1">
-        <f>Recall!H9</f>
-        <v>0.85104999999999997</v>
+        <f>Recall!J9</f>
+        <v>0.85097500000000004</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>0.11529021598232707</v>
+        <v>0.11538367566309274</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -5282,16 +5648,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <f>Precision!H10</f>
-        <v>4.6316666666666673E-2</v>
+        <f>Precision!J10</f>
+        <v>4.6375E-2</v>
       </c>
       <c r="C10" s="1">
-        <f>Recall!H10</f>
+        <f>Recall!J10</f>
         <v>0.89029999999999998</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>8.8052518817730505E-2</v>
+        <v>8.8157925641230941E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5333,24 +5699,24 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <f>MAE!H6</f>
-        <v>0.82263333333333344</v>
+        <f>MAE!J6</f>
+        <v>0.81217499999999998</v>
       </c>
       <c r="C2" s="1">
-        <f>MSE!H6</f>
-        <v>1.1098166666666667</v>
+        <f>MSE!J6</f>
+        <v>1.1040749999999999</v>
       </c>
       <c r="D2" s="1">
-        <f>1-('R'!H6)</f>
-        <v>0.72376666666666667</v>
+        <f>1-('R'!J6)</f>
+        <v>0.714175</v>
       </c>
       <c r="E2" s="1">
-        <f>1-(Precision!H6)</f>
-        <v>0.93833333333333335</v>
+        <f>1-(Precision!J6)</f>
+        <v>0.9382625</v>
       </c>
       <c r="F2" s="1">
-        <f>1-(Recall!H6)</f>
-        <v>0.15585000000000004</v>
+        <f>1-(Recall!J6)</f>
+        <v>0.15593749999999995</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5358,24 +5724,24 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <f>MAE!H9</f>
-        <v>0.81273333333333342</v>
+        <f>MAE!J9</f>
+        <v>0.80577500000000002</v>
       </c>
       <c r="C3" s="1">
-        <f>MSE!H9</f>
-        <v>1.08165</v>
+        <f>MSE!J9</f>
+        <v>1.0817625</v>
       </c>
       <c r="D3" s="1">
-        <f>1-('R'!H9)</f>
-        <v>0.71221666666666672</v>
+        <f>1-('R'!J9)</f>
+        <v>0.70681250000000007</v>
       </c>
       <c r="E3" s="1">
-        <f>1-(Precision!H9)</f>
-        <v>0.9381666666666667</v>
+        <f>1-(Precision!J9)</f>
+        <v>0.93811250000000002</v>
       </c>
       <c r="F3" s="1">
-        <f>1-(Recall!H9)</f>
-        <v>0.14895000000000003</v>
+        <f>1-(Recall!J9)</f>
+        <v>0.14902499999999996</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5383,23 +5749,23 @@
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <f>MAE!H10</f>
-        <v>0.79910000000000014</v>
+        <f>MAE!J10</f>
+        <v>0.76557499999999989</v>
       </c>
       <c r="C4" s="1">
-        <f>MSE!H10</f>
-        <v>1.0389499999999998</v>
+        <f>MSE!J10</f>
+        <v>0.99353749999999996</v>
       </c>
       <c r="D4" s="1">
-        <f>1-('R'!H10)</f>
-        <v>0.66715000000000002</v>
+        <f>1-('R'!J10)</f>
+        <v>0.63178749999999995</v>
       </c>
       <c r="E4" s="1">
-        <f>1-(Precision!H10)</f>
-        <v>0.95368333333333333</v>
+        <f>1-(Precision!J10)</f>
+        <v>0.95362499999999994</v>
       </c>
       <c r="F4" s="1">
-        <f>1-(Recall!H10)</f>
+        <f>1-(Recall!J10)</f>
         <v>0.10970000000000002</v>
       </c>
     </row>
